--- a/Programs.xlsx
+++ b/Programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Anthropology</t>
   </si>
@@ -82,6 +82,81 @@
   </si>
   <si>
     <t>Application Deadline</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>English - Literature</t>
+  </si>
+  <si>
+    <t>English - Creative Writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Science </t>
+  </si>
+  <si>
+    <t>Environment Studies</t>
+  </si>
+  <si>
+    <t>Film Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance </t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Honors Program</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>Humanities for Leadership</t>
+  </si>
+  <si>
+    <t>Humanities for Teaching</t>
+  </si>
+  <si>
+    <t>Individualized Major (Business Administration)</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Arts</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Liberal Studies</t>
+  </si>
+  <si>
+    <t>International Business</t>
+  </si>
+  <si>
+    <t>Internation Studies</t>
+  </si>
+  <si>
+    <t>Law Scholars Program</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Marine and Conservation Biology</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
   </si>
 </sst>
 </file>
@@ -138,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B20" totalsRowShown="0">
-  <autoFilter ref="A1:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B45" totalsRowShown="0">
+  <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Application Deadline"/>
@@ -411,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,7 +508,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>43250</v>
@@ -441,7 +516,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>43250</v>
@@ -449,7 +524,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>43250</v>
@@ -457,7 +532,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>43250</v>
@@ -465,7 +540,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>43250</v>
@@ -473,7 +548,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>43250</v>
@@ -481,7 +556,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>43250</v>
@@ -489,7 +564,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>43250</v>
@@ -497,7 +572,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>43250</v>
@@ -505,7 +580,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>43250</v>
@@ -513,7 +588,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>43250</v>
@@ -521,7 +596,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>43250</v>
@@ -529,7 +604,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>43250</v>
@@ -537,7 +612,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>43250</v>
@@ -545,7 +620,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>43250</v>
@@ -553,15 +628,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>43281</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>43281</v>
@@ -569,7 +644,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>43281</v>
@@ -577,10 +652,210 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>43281</v>
+      <c r="B21" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43100</v>
       </c>
     </row>
   </sheetData>
